--- a/data/trans_orig/P6714-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6714-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B12ABDBF-CFCF-4E49-9185-F5F2ED5BF814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9038C8B5-0868-43A6-94E8-6CE8C128734F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0FF2E38C-521B-40B0-9093-02274C77C18B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BC8F84F1-743E-409F-B4B6-3ADBC419A298}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="554">
   <si>
     <t>Población según si se sienten comprometidos con su profesión en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -75,10 +75,10 @@
     <t>3,33%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
   </si>
   <si>
     <t>2,18%</t>
@@ -87,16 +87,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,32%</t>
+    <t>7,88%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -105,22 +105,22 @@
     <t>3,8%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -129,1537 +129,1558 @@
     <t>13,63%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
   </si>
   <si>
     <t>15,33%</t>
   </si>
   <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se sienten comprometidos con su profesión en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>51,96%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
   </si>
   <si>
     <t>40,54%</t>
   </si>
   <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
   </si>
   <si>
     <t>17,81%</t>
   </si>
   <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se sienten comprometidos con su profesión en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
   </si>
   <si>
     <t>26,57%</t>
   </si>
   <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
   </si>
   <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
   </si>
   <si>
     <t>27,29%</t>
   </si>
   <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
   </si>
   <si>
     <t>45,32%</t>
   </si>
   <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
   </si>
   <si>
     <t>44,12%</t>
@@ -1668,16 +1689,16 @@
     <t>41,02%</t>
   </si>
   <si>
-    <t>47,29%</t>
+    <t>47,25%</t>
   </si>
   <si>
     <t>44,82%</t>
   </si>
   <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
   </si>
 </sst>
 </file>
@@ -2089,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2711C4C-978B-48ED-A1EE-F0574C294E46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7E4D13-DB8F-4629-AE47-D4C34780EEE4}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2524,10 +2545,10 @@
         <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -2536,13 +2557,13 @@
         <v>9620</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -2551,13 +2572,13 @@
         <v>17398</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,13 +2593,13 @@
         <v>18828</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -2587,13 +2608,13 @@
         <v>15042</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -2602,13 +2623,13 @@
         <v>33870</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,13 +2644,13 @@
         <v>68437</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>35</v>
@@ -2638,13 +2659,13 @@
         <v>37576</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>98</v>
@@ -2653,13 +2674,13 @@
         <v>106013</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,13 +2695,13 @@
         <v>77911</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -2689,13 +2710,13 @@
         <v>69666</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>148</v>
@@ -2704,13 +2725,13 @@
         <v>147577</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,13 +2746,13 @@
         <v>208695</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>132</v>
@@ -2740,13 +2761,13 @@
         <v>144305</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="M14" s="7">
         <v>332</v>
@@ -2755,13 +2776,13 @@
         <v>352999</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,7 +2838,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2829,13 +2850,13 @@
         <v>7853</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -2844,13 +2865,13 @@
         <v>4180</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2859,13 +2880,13 @@
         <v>12033</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,13 +2901,13 @@
         <v>15544</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -2895,13 +2916,13 @@
         <v>9993</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -2910,13 +2931,13 @@
         <v>25537</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,13 +2952,13 @@
         <v>64134</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>55</v>
@@ -2946,13 +2967,13 @@
         <v>56831</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>118</v>
@@ -2961,13 +2982,13 @@
         <v>120965</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +3003,13 @@
         <v>101095</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>72</v>
@@ -2997,13 +3018,13 @@
         <v>73859</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>171</v>
@@ -3012,13 +3033,13 @@
         <v>174953</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,13 +3054,13 @@
         <v>236574</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>133</v>
@@ -3048,13 +3069,13 @@
         <v>140067</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>362</v>
@@ -3063,10 +3084,10 @@
         <v>376641</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>147</v>
@@ -3158,7 +3179,7 @@
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -3167,13 +3188,13 @@
         <v>5071</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3209,13 @@
         <v>8617</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -3203,13 +3224,13 @@
         <v>8967</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -3218,13 +3239,13 @@
         <v>17583</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3260,13 @@
         <v>35819</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -3254,13 +3275,13 @@
         <v>38544</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>64</v>
@@ -3269,13 +3290,13 @@
         <v>74363</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3311,13 @@
         <v>84257</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -3305,13 +3326,13 @@
         <v>53011</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>120</v>
@@ -3320,13 +3341,13 @@
         <v>137268</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3362,13 @@
         <v>235942</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>105</v>
@@ -3356,13 +3377,13 @@
         <v>121712</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>313</v>
@@ -3371,13 +3392,13 @@
         <v>357653</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,7 +3454,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3445,13 +3466,13 @@
         <v>1134</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3463,10 +3484,10 @@
         <v>15</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -3475,13 +3496,13 @@
         <v>1134</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3517,13 @@
         <v>4302</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -3511,13 +3532,13 @@
         <v>1939</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -3526,13 +3547,13 @@
         <v>6241</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3568,13 @@
         <v>14506</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -3562,13 +3583,13 @@
         <v>8369</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -3577,13 +3598,13 @@
         <v>22875</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3619,13 @@
         <v>36590</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -3613,13 +3634,13 @@
         <v>16041</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>48</v>
@@ -3628,13 +3649,13 @@
         <v>52630</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>34</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3670,13 @@
         <v>100818</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>40</v>
@@ -3664,10 +3685,10 @@
         <v>43343</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>227</v>
@@ -3756,7 +3777,7 @@
         <v>15</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>232</v>
@@ -3771,7 +3792,7 @@
         <v>15</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>232</v>
@@ -3786,7 +3807,7 @@
         <v>15</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>233</v>
@@ -3807,7 +3828,7 @@
         <v>15</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>232</v>
@@ -3858,7 +3879,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>232</v>
@@ -3873,7 +3894,7 @@
         <v>15</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>232</v>
@@ -3888,7 +3909,7 @@
         <v>15</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>233</v>
@@ -3909,7 +3930,7 @@
         <v>15</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>232</v>
@@ -4076,13 +4097,13 @@
         <v>17738</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M40" s="7">
         <v>39</v>
@@ -4091,13 +4112,13 @@
         <v>40287</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4133,13 @@
         <v>50441</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H41" s="7">
         <v>34</v>
@@ -4127,13 +4148,13 @@
         <v>40125</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>256</v>
+        <v>67</v>
       </c>
       <c r="K41" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M41" s="7">
         <v>78</v>
@@ -4142,13 +4163,13 @@
         <v>90567</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,10 +4184,10 @@
         <v>194189</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>262</v>
@@ -4220,7 +4241,7 @@
         <v>270</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>128</v>
+        <v>271</v>
       </c>
       <c r="H43" s="7">
         <v>225</v>
@@ -4229,13 +4250,13 @@
         <v>239243</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M43" s="7">
         <v>535</v>
@@ -4244,13 +4265,13 @@
         <v>561696</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4286,13 @@
         <v>828095</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H44" s="7">
         <v>453</v>
@@ -4280,13 +4301,13 @@
         <v>493001</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M44" s="7">
         <v>1226</v>
@@ -4295,13 +4316,13 @@
         <v>1321096</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,7 +4378,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4379,7 +4400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399EAA90-A8D9-4572-A4B6-2A93200D8B20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6006E5FA-C40D-441F-9D03-EE874B7B15CB}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4396,7 +4417,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4503,13 +4524,13 @@
         <v>1060</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4518,13 +4539,13 @@
         <v>1085</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4533,13 +4554,13 @@
         <v>2145</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4575,13 @@
         <v>8198</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -4569,13 +4590,13 @@
         <v>6644</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -4584,13 +4605,13 @@
         <v>14842</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>33</v>
+        <v>300</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4626,13 @@
         <v>21057</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>302</v>
+        <v>40</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -4620,13 +4641,13 @@
         <v>22663</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -4635,13 +4656,13 @@
         <v>43720</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,13 +4677,13 @@
         <v>22673</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -4671,13 +4692,13 @@
         <v>29084</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -4686,13 +4707,13 @@
         <v>51757</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4728,13 @@
         <v>26121</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -4722,13 +4743,13 @@
         <v>32378</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M8" s="7">
         <v>57</v>
@@ -4737,13 +4758,13 @@
         <v>58499</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4832,13 @@
         <v>15277</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4826,13 +4847,13 @@
         <v>3997</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -4841,7 +4862,7 @@
         <v>19275</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>335</v>
@@ -4865,10 +4886,10 @@
         <v>337</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -4877,13 +4898,13 @@
         <v>26467</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>82</v>
+        <v>340</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M11" s="7">
         <v>48</v>
@@ -4892,13 +4913,13 @@
         <v>48170</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4934,13 @@
         <v>75268</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>178</v>
+        <v>347</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H12" s="7">
         <v>57</v>
@@ -4928,13 +4949,13 @@
         <v>54767</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>347</v>
+        <v>172</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M12" s="7">
         <v>126</v>
@@ -4943,13 +4964,13 @@
         <v>130035</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,13 +4985,13 @@
         <v>92411</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>313</v>
+        <v>135</v>
       </c>
       <c r="H13" s="7">
         <v>81</v>
@@ -4979,13 +5000,13 @@
         <v>76842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>355</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="M13" s="7">
         <v>172</v>
@@ -5015,13 +5036,13 @@
         <v>139525</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>360</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H14" s="7">
         <v>113</v>
@@ -5030,13 +5051,13 @@
         <v>111642</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M14" s="7">
         <v>248</v>
@@ -5045,13 +5066,13 @@
         <v>251167</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,7 +5128,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5119,13 +5140,13 @@
         <v>8180</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5134,7 +5155,7 @@
         <v>7314</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>370</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>371</v>
@@ -5224,10 +5245,10 @@
         <v>385</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>239</v>
+        <v>386</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H18" s="7">
         <v>56</v>
@@ -5236,13 +5257,13 @@
         <v>53271</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>389</v>
+        <v>134</v>
       </c>
       <c r="M18" s="7">
         <v>141</v>
@@ -5427,7 +5448,7 @@
         <v>5358</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>411</v>
@@ -5448,7 +5469,7 @@
         <v>414</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>415</v>
+        <v>33</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -5457,13 +5478,13 @@
         <v>17223</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,7 +5502,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>118</v>
+        <v>418</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>419</v>
@@ -5511,10 +5532,10 @@
         <v>423</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>30</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5550,13 @@
         <v>68113</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -5544,13 +5565,13 @@
         <v>36316</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M24" s="7">
         <v>97</v>
@@ -5559,13 +5580,13 @@
         <v>104428</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5601,13 @@
         <v>102433</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>139</v>
+        <v>435</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>180</v>
+        <v>436</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H25" s="7">
         <v>64</v>
@@ -5595,13 +5616,13 @@
         <v>70635</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M25" s="7">
         <v>159</v>
@@ -5610,13 +5631,13 @@
         <v>173068</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>273</v>
+        <v>441</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5652,13 @@
         <v>179590</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="H26" s="7">
         <v>98</v>
@@ -5646,13 +5667,13 @@
         <v>107009</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="M26" s="7">
         <v>258</v>
@@ -5661,13 +5682,13 @@
         <v>286599</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,7 +5744,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5735,13 +5756,13 @@
         <v>8764</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -5750,13 +5771,13 @@
         <v>3243</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>451</v>
+        <v>152</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>452</v>
+        <v>73</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -5765,13 +5786,13 @@
         <v>12006</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>77</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5807,13 @@
         <v>9514</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -5801,13 +5822,13 @@
         <v>7695</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -5816,13 +5837,13 @@
         <v>17209</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>383</v>
+        <v>466</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5858,13 @@
         <v>27488</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -5852,13 +5873,13 @@
         <v>17702</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="M30" s="7">
         <v>40</v>
@@ -5867,13 +5888,13 @@
         <v>45190</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>471</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5909,13 @@
         <v>40201</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="H31" s="7">
         <v>24</v>
@@ -5903,13 +5924,13 @@
         <v>27647</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="M31" s="7">
         <v>59</v>
@@ -5918,13 +5939,13 @@
         <v>67848</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,13 +5960,13 @@
         <v>79760</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="H32" s="7">
         <v>40</v>
@@ -5954,13 +5975,13 @@
         <v>49592</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="M32" s="7">
         <v>111</v>
@@ -5969,13 +5990,13 @@
         <v>129352</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6046,7 +6067,7 @@
         <v>15</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>233</v>
@@ -6061,10 +6082,10 @@
         <v>15</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6076,10 +6097,10 @@
         <v>15</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,7 +6118,7 @@
         <v>15</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>233</v>
@@ -6112,10 +6133,10 @@
         <v>15</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6127,10 +6148,10 @@
         <v>15</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,13 +6166,13 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6163,10 +6184,10 @@
         <v>15</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6175,13 +6196,13 @@
         <v>1050</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6217,13 @@
         <v>1024</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6211,13 +6232,13 @@
         <v>1183</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -6226,13 +6247,13 @@
         <v>2207</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,10 +6268,10 @@
         <v>3910</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>235</v>
@@ -6262,10 +6283,10 @@
         <v>4007</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>235</v>
@@ -6277,13 +6298,13 @@
         <v>7918</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,13 +6372,13 @@
         <v>38639</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>456</v>
+        <v>512</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="H40" s="7">
         <v>25</v>
@@ -6366,13 +6387,13 @@
         <v>27505</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>448</v>
+        <v>515</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>417</v>
+        <v>516</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="M40" s="7">
         <v>60</v>
@@ -6381,13 +6402,13 @@
         <v>66143</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>63</v>
+        <v>520</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6423,13 @@
         <v>74934</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>514</v>
+        <v>338</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="H41" s="7">
         <v>74</v>
@@ -6417,13 +6438,13 @@
         <v>74096</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="M41" s="7">
         <v>142</v>
@@ -6432,13 +6453,13 @@
         <v>149030</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>516</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,13 +6474,13 @@
         <v>286215</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="H42" s="7">
         <v>187</v>
@@ -6468,13 +6489,13 @@
         <v>184719</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>178</v>
+        <v>531</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="M42" s="7">
         <v>447</v>
@@ -6483,13 +6504,13 @@
         <v>470934</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>526</v>
+        <v>265</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,13 +6525,13 @@
         <v>377909</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H43" s="7">
         <v>289</v>
@@ -6519,13 +6540,13 @@
         <v>293214</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="M43" s="7">
         <v>648</v>
@@ -6534,13 +6555,13 @@
         <v>671123</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,13 +6576,13 @@
         <v>644625</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="H44" s="7">
         <v>438</v>
@@ -6570,13 +6591,13 @@
         <v>457638</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="M44" s="7">
         <v>1039</v>
@@ -6585,13 +6606,13 @@
         <v>1102263</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6647,7 +6668,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6714-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6714-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9038C8B5-0868-43A6-94E8-6CE8C128734F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A6D1A80-040B-4485-9B29-9DD8F8C8C026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BC8F84F1-743E-409F-B4B6-3ADBC419A298}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{82276138-B7F3-4802-ACAC-2309F0F9F223}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="550">
   <si>
     <t>Población según si se sienten comprometidos con su profesión en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -75,1630 +75,1618 @@
     <t>3,33%</t>
   </si>
   <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>3,8%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>10,75%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se sienten comprometidos con su profesión en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
   </si>
   <si>
     <t>23,32%</t>
   </si>
   <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
   </si>
   <si>
     <t>15,37%</t>
   </si>
   <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
   </si>
   <si>
     <t>19,15%</t>
   </si>
   <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se sienten comprometidos con su profesión en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
   </si>
   <si>
     <t>26,57%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
   </si>
   <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
   </si>
   <si>
     <t>27,29%</t>
   </si>
   <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
   </si>
   <si>
     <t>45,32%</t>
   </si>
   <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
   </si>
   <si>
     <t>44,12%</t>
   </si>
   <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
   </si>
   <si>
     <t>44,82%</t>
   </si>
   <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
   </si>
 </sst>
 </file>
@@ -2110,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7E4D13-DB8F-4629-AE47-D4C34780EEE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4CDB26-A60B-49D5-8E36-C6626B8C1280}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2288,10 +2276,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -2303,10 +2291,10 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -2318,16 +2306,16 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>11</v>
@@ -2336,13 +2324,13 @@
         <v>11294</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>13</v>
@@ -2351,13 +2339,13 @@
         <v>13304</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>24</v>
@@ -2366,19 +2354,19 @@
         <v>24597</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>22</v>
@@ -2387,13 +2375,13 @@
         <v>22601</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -2402,13 +2390,13 @@
         <v>25700</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
@@ -2417,19 +2405,19 @@
         <v>48301</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>39</v>
@@ -2438,13 +2426,13 @@
         <v>43051</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>42</v>
@@ -2453,13 +2441,13 @@
         <v>42593</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M8" s="7">
         <v>81</v>
@@ -2468,13 +2456,13 @@
         <v>85644</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,13 +2477,13 @@
         <v>82851</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>85</v>
@@ -2504,13 +2492,13 @@
         <v>86787</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>163</v>
@@ -2519,18 +2507,18 @@
         <v>169638</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2542,13 +2530,13 @@
         <v>7778</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -2557,13 +2545,13 @@
         <v>9620</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -2572,13 +2560,13 @@
         <v>17398</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,13 +2581,13 @@
         <v>18828</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -2608,13 +2596,13 @@
         <v>15042</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -2623,19 +2611,19 @@
         <v>33870</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7">
         <v>63</v>
@@ -2644,13 +2632,13 @@
         <v>68437</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>35</v>
@@ -2659,13 +2647,13 @@
         <v>37576</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>98</v>
@@ -2674,19 +2662,19 @@
         <v>106013</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>80</v>
@@ -2695,13 +2683,13 @@
         <v>77911</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -2710,13 +2698,13 @@
         <v>69666</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>148</v>
@@ -2725,19 +2713,19 @@
         <v>147577</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>200</v>
@@ -2746,13 +2734,13 @@
         <v>208695</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>132</v>
@@ -2761,13 +2749,13 @@
         <v>144305</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M14" s="7">
         <v>332</v>
@@ -2797,13 +2785,13 @@
         <v>381648</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>257</v>
@@ -2812,13 +2800,13 @@
         <v>276209</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>625</v>
@@ -2827,13 +2815,13 @@
         <v>657857</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2838,13 @@
         <v>7853</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -2865,13 +2853,13 @@
         <v>4180</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2880,13 +2868,13 @@
         <v>12033</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,13 +2889,13 @@
         <v>15544</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -2916,13 +2904,13 @@
         <v>9993</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -2931,7 +2919,7 @@
         <v>25537</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>119</v>
@@ -2943,7 +2931,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7">
         <v>63</v>
@@ -2994,7 +2982,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
         <v>99</v>
@@ -3045,7 +3033,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>229</v>
@@ -3105,13 +3093,13 @@
         <v>425199</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>272</v>
@@ -3120,13 +3108,13 @@
         <v>284930</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>682</v>
@@ -3135,13 +3123,13 @@
         <v>710129</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,7 +3152,7 @@
         <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3173,13 +3161,13 @@
         <v>2042</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -3188,13 +3176,13 @@
         <v>5071</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,13 +3197,13 @@
         <v>8617</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -3224,13 +3212,13 @@
         <v>8967</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -3239,10 +3227,10 @@
         <v>17583</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>163</v>
@@ -3251,7 +3239,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7">
         <v>32</v>
@@ -3302,7 +3290,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>75</v>
@@ -3353,7 +3341,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>208</v>
@@ -3413,13 +3401,13 @@
         <v>367663</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>192</v>
@@ -3428,13 +3416,13 @@
         <v>224275</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>518</v>
@@ -3443,13 +3431,13 @@
         <v>591938</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,7 +3490,7 @@
         <v>15</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>111</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3505,13 @@
         <v>4302</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -3532,13 +3520,13 @@
         <v>1939</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -3547,19 +3535,19 @@
         <v>6241</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="7">
         <v>14</v>
@@ -3568,7 +3556,7 @@
         <v>14506</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>206</v>
@@ -3586,10 +3574,10 @@
         <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -3598,10 +3586,10 @@
         <v>22875</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>212</v>
@@ -3610,7 +3598,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7">
         <v>34</v>
@@ -3637,10 +3625,10 @@
         <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>48</v>
@@ -3649,19 +3637,19 @@
         <v>52630</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>94</v>
@@ -3670,13 +3658,13 @@
         <v>100818</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>40</v>
@@ -3685,13 +3673,13 @@
         <v>43343</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>134</v>
@@ -3700,13 +3688,13 @@
         <v>144160</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,13 +3709,13 @@
         <v>157351</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>63</v>
@@ -3736,13 +3724,13 @@
         <v>69691</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>210</v>
@@ -3751,18 +3739,18 @@
         <v>227041</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3780,7 +3768,7 @@
         <v>194</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3795,7 +3783,7 @@
         <v>194</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3810,7 +3798,7 @@
         <v>194</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,7 +3819,7 @@
         <v>194</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -3840,13 +3828,13 @@
         <v>891</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -3855,19 +3843,19 @@
         <v>891</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -3882,7 +3870,7 @@
         <v>194</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3897,7 +3885,7 @@
         <v>194</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3912,13 +3900,13 @@
         <v>194</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -3933,7 +3921,7 @@
         <v>194</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3942,13 +3930,13 @@
         <v>967</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3957,19 +3945,19 @@
         <v>967</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
         <v>3</v>
@@ -3978,13 +3966,13 @@
         <v>3016</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -3993,13 +3981,13 @@
         <v>981</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -4008,13 +3996,13 @@
         <v>3997</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +4017,13 @@
         <v>3016</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -4044,13 +4032,13 @@
         <v>2838</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>6</v>
@@ -4059,13 +4047,13 @@
         <v>5854</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4070,13 @@
         <v>22549</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H40" s="7">
         <v>17</v>
@@ -4097,13 +4085,13 @@
         <v>17738</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M40" s="7">
         <v>39</v>
@@ -4112,13 +4100,13 @@
         <v>40287</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4121,13 @@
         <v>50441</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H41" s="7">
         <v>34</v>
@@ -4148,10 +4136,10 @@
         <v>40125</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>67</v>
+        <v>255</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>161</v>
+        <v>256</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>257</v>
@@ -4163,19 +4151,19 @@
         <v>90567</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>61</v>
+        <v>258</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="7">
         <v>183</v>
@@ -4184,13 +4172,13 @@
         <v>194189</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H42" s="7">
         <v>143</v>
@@ -4199,13 +4187,13 @@
         <v>154624</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M42" s="7">
         <v>326</v>
@@ -4214,19 +4202,19 @@
         <v>348813</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="7">
         <v>310</v>
@@ -4277,7 +4265,7 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7">
         <v>773</v>
@@ -4319,10 +4307,10 @@
         <v>283</v>
       </c>
       <c r="P44" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,13 +4325,13 @@
         <v>1417728</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H45" s="7">
         <v>872</v>
@@ -4352,13 +4340,13 @@
         <v>944731</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M45" s="7">
         <v>2204</v>
@@ -4367,18 +4355,18 @@
         <v>2362459</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4400,7 +4388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6006E5FA-C40D-441F-9D03-EE874B7B15CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68715D1C-DA53-428D-A670-1A9254B06408}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4417,7 +4405,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4524,13 +4512,13 @@
         <v>1060</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4539,13 +4527,13 @@
         <v>1085</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4554,13 +4542,13 @@
         <v>2145</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4563,13 @@
         <v>8198</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -4590,13 +4578,13 @@
         <v>6644</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -4605,19 +4593,19 @@
         <v>14842</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>19</v>
@@ -4626,13 +4614,13 @@
         <v>21057</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -4641,13 +4629,13 @@
         <v>22663</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -4656,19 +4644,19 @@
         <v>43720</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>22</v>
@@ -4677,13 +4665,13 @@
         <v>22673</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -4692,13 +4680,13 @@
         <v>29084</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -4707,19 +4695,19 @@
         <v>51757</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>24</v>
@@ -4728,13 +4716,13 @@
         <v>26121</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -4743,13 +4731,13 @@
         <v>32378</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M8" s="7">
         <v>57</v>
@@ -4758,13 +4746,13 @@
         <v>58499</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4767,13 @@
         <v>79109</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>93</v>
@@ -4794,13 +4782,13 @@
         <v>91855</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>167</v>
@@ -4809,18 +4797,18 @@
         <v>170964</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4832,13 +4820,13 @@
         <v>15277</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4847,13 +4835,13 @@
         <v>3997</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -4862,13 +4850,13 @@
         <v>19275</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>298</v>
+        <v>152</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>335</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4871,13 @@
         <v>21703</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -4898,13 +4886,13 @@
         <v>26467</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>341</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M11" s="7">
         <v>48</v>
@@ -4913,19 +4901,19 @@
         <v>48170</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>343</v>
+        <v>161</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7">
         <v>69</v>
@@ -4934,13 +4922,13 @@
         <v>75268</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="H12" s="7">
         <v>57</v>
@@ -4949,13 +4937,13 @@
         <v>54767</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>172</v>
+        <v>345</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>350</v>
+        <v>88</v>
       </c>
       <c r="M12" s="7">
         <v>126</v>
@@ -4964,19 +4952,19 @@
         <v>130035</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>91</v>
@@ -4985,13 +4973,13 @@
         <v>92411</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>135</v>
+        <v>351</v>
       </c>
       <c r="H13" s="7">
         <v>81</v>
@@ -5000,13 +4988,13 @@
         <v>76842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>353</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="M13" s="7">
         <v>172</v>
@@ -5015,19 +5003,19 @@
         <v>169254</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>135</v>
@@ -5036,13 +5024,13 @@
         <v>139525</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H14" s="7">
         <v>113</v>
@@ -5051,13 +5039,13 @@
         <v>111642</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M14" s="7">
         <v>248</v>
@@ -5066,13 +5054,13 @@
         <v>251167</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5075,13 @@
         <v>344185</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>283</v>
@@ -5102,13 +5090,13 @@
         <v>273716</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>612</v>
@@ -5117,13 +5105,13 @@
         <v>617902</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5128,13 @@
         <v>8180</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5155,13 +5143,13 @@
         <v>7314</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>253</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -5170,13 +5158,13 @@
         <v>15494</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,13 +5179,13 @@
         <v>23283</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -5206,13 +5194,13 @@
         <v>15999</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -5221,19 +5209,19 @@
         <v>39282</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7">
         <v>85</v>
@@ -5242,13 +5230,13 @@
         <v>93239</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H18" s="7">
         <v>56</v>
@@ -5257,13 +5245,13 @@
         <v>53271</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M18" s="7">
         <v>141</v>
@@ -5272,19 +5260,19 @@
         <v>146510</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
         <v>115</v>
@@ -5293,13 +5281,13 @@
         <v>119167</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="H19" s="7">
         <v>90</v>
@@ -5308,13 +5296,13 @@
         <v>87821</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M19" s="7">
         <v>205</v>
@@ -5323,19 +5311,19 @@
         <v>206989</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>207</v>
@@ -5344,13 +5332,13 @@
         <v>215719</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H20" s="7">
         <v>150</v>
@@ -5359,13 +5347,13 @@
         <v>153009</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M20" s="7">
         <v>357</v>
@@ -5374,13 +5362,13 @@
         <v>368728</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,13 +5383,13 @@
         <v>459588</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>319</v>
@@ -5410,13 +5398,13 @@
         <v>317414</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>756</v>
@@ -5425,13 +5413,13 @@
         <v>777002</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5436,13 @@
         <v>5358</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -5463,13 +5451,13 @@
         <v>11865</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -5481,10 +5469,10 @@
         <v>415</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,10 +5490,10 @@
         <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>418</v>
+        <v>243</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -5514,13 +5502,13 @@
         <v>17292</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M23" s="7">
         <v>24</v>
@@ -5529,19 +5517,19 @@
         <v>29527</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>423</v>
+        <v>334</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7">
         <v>62</v>
@@ -5550,13 +5538,13 @@
         <v>68113</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -5565,13 +5553,13 @@
         <v>36316</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="M24" s="7">
         <v>97</v>
@@ -5580,19 +5568,19 @@
         <v>104428</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>95</v>
@@ -5601,13 +5589,13 @@
         <v>102433</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H25" s="7">
         <v>64</v>
@@ -5616,13 +5604,13 @@
         <v>70635</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>159</v>
@@ -5631,19 +5619,19 @@
         <v>173068</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>160</v>
@@ -5652,13 +5640,13 @@
         <v>179590</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H26" s="7">
         <v>98</v>
@@ -5667,13 +5655,13 @@
         <v>107009</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M26" s="7">
         <v>258</v>
@@ -5682,13 +5670,13 @@
         <v>286599</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5691,13 @@
         <v>367728</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>223</v>
@@ -5718,13 +5706,13 @@
         <v>243118</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>554</v>
@@ -5733,13 +5721,13 @@
         <v>610846</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,13 +5744,13 @@
         <v>8764</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -5771,13 +5759,13 @@
         <v>3243</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>152</v>
+        <v>454</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>73</v>
+        <v>455</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -5786,13 +5774,13 @@
         <v>12006</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,10 +5798,10 @@
         <v>459</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -5822,13 +5810,13 @@
         <v>7695</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -5837,19 +5825,19 @@
         <v>17209</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="7">
         <v>24</v>
@@ -5858,13 +5846,13 @@
         <v>27488</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>468</v>
+        <v>305</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -5873,13 +5861,13 @@
         <v>17702</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>472</v>
+        <v>22</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M30" s="7">
         <v>40</v>
@@ -5888,19 +5876,19 @@
         <v>45190</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>321</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7">
         <v>35</v>
@@ -5909,13 +5897,13 @@
         <v>40201</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H31" s="7">
         <v>24</v>
@@ -5924,13 +5912,13 @@
         <v>27647</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M31" s="7">
         <v>59</v>
@@ -5939,19 +5927,19 @@
         <v>67848</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>484</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>71</v>
@@ -5960,13 +5948,13 @@
         <v>79760</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H32" s="7">
         <v>40</v>
@@ -5975,13 +5963,13 @@
         <v>49592</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M32" s="7">
         <v>111</v>
@@ -5990,13 +5978,13 @@
         <v>129352</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +5999,13 @@
         <v>165726</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>90</v>
@@ -6026,13 +6014,13 @@
         <v>105879</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>236</v>
@@ -6041,18 +6029,18 @@
         <v>271605</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6070,7 +6058,7 @@
         <v>194</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6085,7 +6073,7 @@
         <v>194</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6100,7 +6088,7 @@
         <v>194</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,7 +6109,7 @@
         <v>194</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6136,7 +6124,7 @@
         <v>194</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6151,13 +6139,13 @@
         <v>194</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -6166,13 +6154,13 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6187,7 +6175,7 @@
         <v>194</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6196,19 +6184,19 @@
         <v>1050</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -6217,13 +6205,13 @@
         <v>1024</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6232,13 +6220,13 @@
         <v>1183</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -6247,19 +6235,19 @@
         <v>2207</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
         <v>4</v>
@@ -6268,13 +6256,13 @@
         <v>3910</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -6283,13 +6271,13 @@
         <v>4007</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M38" s="7">
         <v>8</v>
@@ -6298,13 +6286,13 @@
         <v>7918</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6307,13 @@
         <v>5985</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -6334,13 +6322,13 @@
         <v>5190</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>11</v>
@@ -6349,13 +6337,13 @@
         <v>11176</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,13 +6360,13 @@
         <v>38639</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H40" s="7">
         <v>25</v>
@@ -6387,13 +6375,13 @@
         <v>27505</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>516</v>
+        <v>367</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="M40" s="7">
         <v>60</v>
@@ -6402,13 +6390,13 @@
         <v>66143</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>519</v>
+        <v>58</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6411,13 @@
         <v>74934</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>338</v>
+        <v>516</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="H41" s="7">
         <v>74</v>
@@ -6438,13 +6426,13 @@
         <v>74096</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="M41" s="7">
         <v>142</v>
@@ -6453,19 +6441,19 @@
         <v>149030</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>527</v>
+        <v>73</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>420</v>
+        <v>522</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="7">
         <v>260</v>
@@ -6474,13 +6462,13 @@
         <v>286215</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="H42" s="7">
         <v>187</v>
@@ -6489,13 +6477,13 @@
         <v>184719</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="M42" s="7">
         <v>447</v>
@@ -6504,19 +6492,19 @@
         <v>470934</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>265</v>
+        <v>529</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="7">
         <v>359</v>
@@ -6525,13 +6513,13 @@
         <v>377909</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H43" s="7">
         <v>289</v>
@@ -6540,13 +6528,13 @@
         <v>293214</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="M43" s="7">
         <v>648</v>
@@ -6555,19 +6543,19 @@
         <v>671123</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7">
         <v>601</v>
@@ -6576,13 +6564,13 @@
         <v>644625</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="H44" s="7">
         <v>438</v>
@@ -6591,13 +6579,13 @@
         <v>457638</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="M44" s="7">
         <v>1039</v>
@@ -6606,13 +6594,13 @@
         <v>1102263</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,13 +6615,13 @@
         <v>1422322</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H45" s="7">
         <v>1013</v>
@@ -6642,13 +6630,13 @@
         <v>1037172</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M45" s="7">
         <v>2336</v>
@@ -6657,18 +6645,18 @@
         <v>2459494</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6714-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6714-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A6D1A80-040B-4485-9B29-9DD8F8C8C026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{134BBDF3-833B-41DC-B64C-DED4EA39B43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{82276138-B7F3-4802-ACAC-2309F0F9F223}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{98F511C3-BD69-4BA3-B6F2-04F1D29EF88B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="547">
   <si>
     <t>Población según si se sienten comprometidos con su profesión en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -75,10 +75,10 @@
     <t>3,33%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
   </si>
   <si>
     <t>2,18%</t>
@@ -87,1492 +87,1486 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
     <t>7,6%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se sienten comprometidos con su profesión en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se sienten comprometidos con su profesión en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
     <t>70,85%</t>
   </si>
   <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
   </si>
   <si>
     <t>3,81%</t>
@@ -1581,112 +1575,109 @@
     <t>2,69%</t>
   </si>
   <si>
-    <t>3,36%</t>
+    <t>2,1%</t>
   </si>
   <si>
     <t>5,27%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>7,12%</t>
+    <t>5,17%</t>
   </si>
   <si>
     <t>20,12%</t>
   </si>
   <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
   </si>
   <si>
     <t>19,15%</t>
   </si>
   <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
   </si>
   <si>
     <t>26,57%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
   </si>
   <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
   </si>
   <si>
     <t>27,29%</t>
   </si>
   <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
   </si>
   <si>
     <t>45,32%</t>
   </si>
   <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
   </si>
   <si>
     <t>44,12%</t>
   </si>
   <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
   </si>
   <si>
     <t>44,82%</t>
   </si>
   <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
   </si>
 </sst>
 </file>
@@ -2098,7 +2089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4CDB26-A60B-49D5-8E36-C6626B8C1280}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6DDF76-97C6-4542-8B7D-D0149BE4EE6A}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2276,10 +2267,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -2291,10 +2282,10 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -2306,16 +2297,16 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>11</v>
@@ -2324,13 +2315,13 @@
         <v>11294</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>13</v>
@@ -2339,13 +2330,13 @@
         <v>13304</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>24</v>
@@ -2354,19 +2345,19 @@
         <v>24597</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>22</v>
@@ -2375,13 +2366,13 @@
         <v>22601</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -2390,13 +2381,13 @@
         <v>25700</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
@@ -2405,19 +2396,19 @@
         <v>48301</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>39</v>
@@ -2426,13 +2417,13 @@
         <v>43051</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>42</v>
@@ -2441,13 +2432,13 @@
         <v>42593</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M8" s="7">
         <v>81</v>
@@ -2456,13 +2447,13 @@
         <v>85644</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,13 +2468,13 @@
         <v>82851</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>85</v>
@@ -2492,13 +2483,13 @@
         <v>86787</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>163</v>
@@ -2507,18 +2498,18 @@
         <v>169638</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2530,13 +2521,13 @@
         <v>7778</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -2545,13 +2536,13 @@
         <v>9620</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -2560,13 +2551,13 @@
         <v>17398</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,13 +2572,13 @@
         <v>18828</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -2596,13 +2587,13 @@
         <v>15042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -2611,19 +2602,19 @@
         <v>33870</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7">
         <v>63</v>
@@ -2632,13 +2623,13 @@
         <v>68437</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>35</v>
@@ -2647,13 +2638,13 @@
         <v>37576</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>98</v>
@@ -2662,19 +2653,19 @@
         <v>106013</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
         <v>80</v>
@@ -2683,13 +2674,13 @@
         <v>77911</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -2698,13 +2689,13 @@
         <v>69666</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>148</v>
@@ -2713,19 +2704,19 @@
         <v>147577</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>200</v>
@@ -2734,13 +2725,13 @@
         <v>208695</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>132</v>
@@ -2749,13 +2740,13 @@
         <v>144305</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>332</v>
@@ -2764,13 +2755,13 @@
         <v>352999</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,13 +2776,13 @@
         <v>381648</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>257</v>
@@ -2800,13 +2791,13 @@
         <v>276209</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>625</v>
@@ -2815,18 +2806,18 @@
         <v>657857</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2838,13 +2829,13 @@
         <v>7853</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -2853,13 +2844,13 @@
         <v>4180</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2868,13 +2859,13 @@
         <v>12033</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,13 +2880,13 @@
         <v>15544</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -2904,13 +2895,13 @@
         <v>9993</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -2919,19 +2910,19 @@
         <v>25537</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
         <v>63</v>
@@ -2940,13 +2931,13 @@
         <v>64134</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>55</v>
@@ -2955,13 +2946,13 @@
         <v>56831</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>118</v>
@@ -2970,19 +2961,19 @@
         <v>120965</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
         <v>99</v>
@@ -2991,13 +2982,13 @@
         <v>101095</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>72</v>
@@ -3006,13 +2997,13 @@
         <v>73859</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>171</v>
@@ -3021,19 +3012,19 @@
         <v>174953</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>229</v>
@@ -3042,13 +3033,13 @@
         <v>236574</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>133</v>
@@ -3057,13 +3048,13 @@
         <v>140067</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>362</v>
@@ -3072,10 +3063,10 @@
         <v>376641</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>147</v>
@@ -3093,13 +3084,13 @@
         <v>425199</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>272</v>
@@ -3108,13 +3099,13 @@
         <v>284930</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>682</v>
@@ -3123,13 +3114,13 @@
         <v>710129</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,7 +3143,7 @@
         <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3161,13 +3152,13 @@
         <v>2042</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -3176,7 +3167,7 @@
         <v>5071</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>154</v>
@@ -3230,16 +3221,16 @@
         <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
         <v>32</v>
@@ -3248,13 +3239,13 @@
         <v>35819</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -3263,13 +3254,13 @@
         <v>38544</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>64</v>
@@ -3278,19 +3269,19 @@
         <v>74363</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
         <v>75</v>
@@ -3299,13 +3290,13 @@
         <v>84257</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -3314,13 +3305,13 @@
         <v>53011</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>120</v>
@@ -3329,19 +3320,19 @@
         <v>137268</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>208</v>
@@ -3350,13 +3341,13 @@
         <v>235942</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>105</v>
@@ -3365,13 +3356,13 @@
         <v>121712</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>313</v>
@@ -3380,13 +3371,13 @@
         <v>357653</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3392,13 @@
         <v>367663</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>192</v>
@@ -3416,13 +3407,13 @@
         <v>224275</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>518</v>
@@ -3431,18 +3422,18 @@
         <v>591938</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3454,13 +3445,13 @@
         <v>1134</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3472,10 +3463,10 @@
         <v>15</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -3484,13 +3475,13 @@
         <v>1134</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3496,13 @@
         <v>4302</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -3520,13 +3511,13 @@
         <v>1939</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -3535,19 +3526,19 @@
         <v>6241</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="7">
         <v>14</v>
@@ -3556,13 +3547,13 @@
         <v>14506</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -3571,13 +3562,13 @@
         <v>8369</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -3586,19 +3577,19 @@
         <v>22875</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
         <v>34</v>
@@ -3607,13 +3598,13 @@
         <v>36590</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -3622,13 +3613,13 @@
         <v>16041</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>48</v>
@@ -3637,19 +3628,19 @@
         <v>52630</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7">
         <v>94</v>
@@ -3658,13 +3649,13 @@
         <v>100818</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>40</v>
@@ -3673,13 +3664,13 @@
         <v>43343</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>143</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>134</v>
@@ -3688,13 +3679,13 @@
         <v>144160</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,13 +3700,13 @@
         <v>157351</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>63</v>
@@ -3724,13 +3715,13 @@
         <v>69691</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>210</v>
@@ -3739,18 +3730,18 @@
         <v>227041</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3765,10 +3756,10 @@
         <v>15</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3780,10 +3771,10 @@
         <v>15</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3795,10 +3786,10 @@
         <v>15</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,10 +3807,10 @@
         <v>15</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -3828,13 +3819,13 @@
         <v>891</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -3843,19 +3834,19 @@
         <v>891</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -3867,10 +3858,10 @@
         <v>15</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3882,10 +3873,10 @@
         <v>15</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3897,16 +3888,16 @@
         <v>15</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -3918,10 +3909,10 @@
         <v>15</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3930,13 +3921,13 @@
         <v>967</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3945,19 +3936,19 @@
         <v>967</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7">
         <v>3</v>
@@ -3966,13 +3957,13 @@
         <v>3016</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -3981,13 +3972,13 @@
         <v>981</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -3996,13 +3987,13 @@
         <v>3997</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,13 +4008,13 @@
         <v>3016</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -4032,13 +4023,13 @@
         <v>2838</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M39" s="7">
         <v>6</v>
@@ -4047,13 +4038,13 @@
         <v>5854</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4061,13 @@
         <v>22549</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H40" s="7">
         <v>17</v>
@@ -4085,13 +4076,13 @@
         <v>17738</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>246</v>
+        <v>155</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M40" s="7">
         <v>39</v>
@@ -4100,13 +4091,13 @@
         <v>40287</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4112,13 @@
         <v>50441</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H41" s="7">
         <v>34</v>
@@ -4136,13 +4127,13 @@
         <v>40125</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M41" s="7">
         <v>78</v>
@@ -4151,10 +4142,10 @@
         <v>90567</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>260</v>
@@ -4163,7 +4154,7 @@
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42" s="7">
         <v>183</v>
@@ -4175,10 +4166,10 @@
         <v>261</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H42" s="7">
         <v>143</v>
@@ -4187,13 +4178,13 @@
         <v>154624</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M42" s="7">
         <v>326</v>
@@ -4202,19 +4193,19 @@
         <v>348813</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C43" s="7">
         <v>310</v>
@@ -4229,7 +4220,7 @@
         <v>270</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>271</v>
+        <v>128</v>
       </c>
       <c r="H43" s="7">
         <v>225</v>
@@ -4238,13 +4229,13 @@
         <v>239243</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M43" s="7">
         <v>535</v>
@@ -4253,19 +4244,19 @@
         <v>561696</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P43" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C44" s="7">
         <v>773</v>
@@ -4274,13 +4265,13 @@
         <v>828095</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H44" s="7">
         <v>453</v>
@@ -4289,13 +4280,13 @@
         <v>493001</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M44" s="7">
         <v>1226</v>
@@ -4304,10 +4295,10 @@
         <v>1321096</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>284</v>
@@ -4325,13 +4316,13 @@
         <v>1417728</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H45" s="7">
         <v>872</v>
@@ -4340,13 +4331,13 @@
         <v>944731</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M45" s="7">
         <v>2204</v>
@@ -4355,13 +4346,13 @@
         <v>2362459</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,7 +4379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68715D1C-DA53-428D-A670-1A9254B06408}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FF6A9D-9243-4F19-8F0E-F8ECE4F889D8}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4527,13 +4518,13 @@
         <v>1085</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>23</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4542,13 +4533,13 @@
         <v>2145</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4554,13 @@
         <v>8198</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -4578,13 +4569,13 @@
         <v>6644</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -4593,7 +4584,7 @@
         <v>14842</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>298</v>
+        <v>33</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>299</v>
@@ -4605,7 +4596,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>19</v>
@@ -4656,7 +4647,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>22</v>
@@ -4707,7 +4698,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>24</v>
@@ -4767,13 +4758,13 @@
         <v>79109</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>93</v>
@@ -4782,13 +4773,13 @@
         <v>91855</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>167</v>
@@ -4797,18 +4788,18 @@
         <v>170964</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4850,13 +4841,13 @@
         <v>19275</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>334</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4862,13 @@
         <v>21703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -4886,13 +4877,13 @@
         <v>26467</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>338</v>
+        <v>82</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>339</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M11" s="7">
         <v>48</v>
@@ -4901,19 +4892,19 @@
         <v>48170</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>161</v>
+        <v>341</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7">
         <v>69</v>
@@ -4922,13 +4913,13 @@
         <v>75268</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>343</v>
+        <v>178</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H12" s="7">
         <v>57</v>
@@ -4937,13 +4928,13 @@
         <v>54767</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>88</v>
+        <v>348</v>
       </c>
       <c r="M12" s="7">
         <v>126</v>
@@ -4952,19 +4943,19 @@
         <v>130035</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
         <v>91</v>
@@ -4973,13 +4964,13 @@
         <v>92411</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="H13" s="7">
         <v>81</v>
@@ -4988,13 +4979,13 @@
         <v>76842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M13" s="7">
         <v>172</v>
@@ -5003,19 +4994,19 @@
         <v>169254</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>135</v>
@@ -5024,13 +5015,13 @@
         <v>139525</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>358</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H14" s="7">
         <v>113</v>
@@ -5039,13 +5030,13 @@
         <v>111642</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M14" s="7">
         <v>248</v>
@@ -5054,13 +5045,13 @@
         <v>251167</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +5066,13 @@
         <v>344185</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>283</v>
@@ -5090,13 +5081,13 @@
         <v>273716</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>612</v>
@@ -5105,18 +5096,18 @@
         <v>617902</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5128,13 +5119,13 @@
         <v>8180</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5143,13 +5134,13 @@
         <v>7314</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -5158,13 +5149,13 @@
         <v>15494</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,13 +5170,13 @@
         <v>23283</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -5194,13 +5185,13 @@
         <v>15999</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -5209,19 +5200,19 @@
         <v>39282</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>383</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
         <v>85</v>
@@ -5230,13 +5221,13 @@
         <v>93239</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>384</v>
+        <v>239</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H18" s="7">
         <v>56</v>
@@ -5245,13 +5236,13 @@
         <v>53271</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M18" s="7">
         <v>141</v>
@@ -5260,19 +5251,19 @@
         <v>146510</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
         <v>115</v>
@@ -5281,13 +5272,13 @@
         <v>119167</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H19" s="7">
         <v>90</v>
@@ -5296,13 +5287,13 @@
         <v>87821</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M19" s="7">
         <v>205</v>
@@ -5311,19 +5302,19 @@
         <v>206989</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>207</v>
@@ -5332,13 +5323,13 @@
         <v>215719</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H20" s="7">
         <v>150</v>
@@ -5347,13 +5338,13 @@
         <v>153009</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M20" s="7">
         <v>357</v>
@@ -5362,13 +5353,13 @@
         <v>368728</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,13 +5374,13 @@
         <v>459588</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>319</v>
@@ -5398,13 +5389,13 @@
         <v>317414</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>756</v>
@@ -5413,13 +5404,13 @@
         <v>777002</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,10 +5430,10 @@
         <v>331</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -5451,13 +5442,13 @@
         <v>11865</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -5466,13 +5457,13 @@
         <v>17223</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>117</v>
+        <v>417</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,10 +5481,10 @@
         <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>243</v>
+        <v>118</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -5502,13 +5493,13 @@
         <v>17292</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M23" s="7">
         <v>24</v>
@@ -5517,19 +5508,19 @@
         <v>29527</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>422</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
         <v>62</v>
@@ -5538,13 +5529,13 @@
         <v>68113</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -5553,13 +5544,13 @@
         <v>36316</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M24" s="7">
         <v>97</v>
@@ -5568,19 +5559,19 @@
         <v>104428</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
         <v>95</v>
@@ -5589,13 +5580,13 @@
         <v>102433</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>139</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="H25" s="7">
         <v>64</v>
@@ -5604,13 +5595,13 @@
         <v>70635</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>159</v>
@@ -5619,19 +5610,19 @@
         <v>173068</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>273</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>160</v>
@@ -5640,13 +5631,13 @@
         <v>179590</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H26" s="7">
         <v>98</v>
@@ -5655,13 +5646,13 @@
         <v>107009</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M26" s="7">
         <v>258</v>
@@ -5670,13 +5661,13 @@
         <v>286599</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5682,13 @@
         <v>367728</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>223</v>
@@ -5706,13 +5697,13 @@
         <v>243118</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>554</v>
@@ -5721,18 +5712,18 @@
         <v>610846</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5744,13 +5735,13 @@
         <v>8764</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -5759,13 +5750,13 @@
         <v>3243</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -5774,13 +5765,13 @@
         <v>12006</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,13 +5786,13 @@
         <v>9514</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>456</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -5810,13 +5801,13 @@
         <v>7695</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>330</v>
+        <v>458</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -5825,19 +5816,19 @@
         <v>17209</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>464</v>
+        <v>383</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="7">
         <v>24</v>
@@ -5846,13 +5837,13 @@
         <v>27488</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>305</v>
+        <v>463</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -5861,13 +5852,13 @@
         <v>17702</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="M30" s="7">
         <v>40</v>
@@ -5876,19 +5867,19 @@
         <v>45190</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
         <v>35</v>
@@ -5897,13 +5888,13 @@
         <v>40201</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H31" s="7">
         <v>24</v>
@@ -5912,13 +5903,13 @@
         <v>27647</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="M31" s="7">
         <v>59</v>
@@ -5927,19 +5918,19 @@
         <v>67848</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7">
         <v>71</v>
@@ -5948,13 +5939,13 @@
         <v>79760</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="H32" s="7">
         <v>40</v>
@@ -5963,13 +5954,13 @@
         <v>49592</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="M32" s="7">
         <v>111</v>
@@ -5978,13 +5969,13 @@
         <v>129352</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +5990,13 @@
         <v>165726</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>90</v>
@@ -6014,13 +6005,13 @@
         <v>105879</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>236</v>
@@ -6029,18 +6020,18 @@
         <v>271605</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6055,10 +6046,10 @@
         <v>15</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6070,10 +6061,10 @@
         <v>15</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6085,10 +6076,10 @@
         <v>15</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,10 +6097,10 @@
         <v>15</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6121,10 +6112,10 @@
         <v>15</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6136,16 +6127,16 @@
         <v>15</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -6154,7 +6145,7 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
@@ -6172,10 +6163,10 @@
         <v>15</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6196,7 +6187,7 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -6247,7 +6238,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7">
         <v>4</v>
@@ -6262,7 +6253,7 @@
         <v>502</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -6277,7 +6268,7 @@
         <v>504</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M38" s="7">
         <v>8</v>
@@ -6307,13 +6298,13 @@
         <v>5985</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -6322,13 +6313,13 @@
         <v>5190</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M39" s="7">
         <v>11</v>
@@ -6337,13 +6328,13 @@
         <v>11176</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,13 +6351,13 @@
         <v>38639</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="H40" s="7">
         <v>25</v>
@@ -6375,13 +6366,13 @@
         <v>27505</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>511</v>
+        <v>448</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M40" s="7">
         <v>60</v>
@@ -6390,13 +6381,13 @@
         <v>66143</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>58</v>
+        <v>512</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>514</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,13 +6402,13 @@
         <v>74934</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="H41" s="7">
         <v>74</v>
@@ -6426,13 +6417,13 @@
         <v>74096</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="M41" s="7">
         <v>142</v>
@@ -6441,19 +6432,19 @@
         <v>149030</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>73</v>
+        <v>520</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42" s="7">
         <v>260</v>
@@ -6462,13 +6453,13 @@
         <v>286215</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="H42" s="7">
         <v>187</v>
@@ -6477,13 +6468,13 @@
         <v>184719</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>526</v>
+        <v>178</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="M42" s="7">
         <v>447</v>
@@ -6492,19 +6483,19 @@
         <v>470934</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C43" s="7">
         <v>359</v>
@@ -6513,13 +6504,13 @@
         <v>377909</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H43" s="7">
         <v>289</v>
@@ -6528,13 +6519,13 @@
         <v>293214</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="M43" s="7">
         <v>648</v>
@@ -6543,19 +6534,19 @@
         <v>671123</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C44" s="7">
         <v>601</v>
@@ -6564,13 +6555,13 @@
         <v>644625</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H44" s="7">
         <v>438</v>
@@ -6579,13 +6570,13 @@
         <v>457638</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="M44" s="7">
         <v>1039</v>
@@ -6594,13 +6585,13 @@
         <v>1102263</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6615,13 +6606,13 @@
         <v>1422322</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H45" s="7">
         <v>1013</v>
@@ -6630,13 +6621,13 @@
         <v>1037172</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M45" s="7">
         <v>2336</v>
@@ -6645,13 +6636,13 @@
         <v>2459494</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6714-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6714-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{134BBDF3-833B-41DC-B64C-DED4EA39B43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A7B7B9A-A89E-4F3F-B8E8-5D6F3080D3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{98F511C3-BD69-4BA3-B6F2-04F1D29EF88B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EA4F5037-74D4-42F9-BCC8-F8500002BA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="550">
   <si>
     <t>Población según si se sienten comprometidos con su profesión en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -216,7 +216,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>2,04%</t>
@@ -354,7 +354,7 @@
     <t>57,95%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,85%</t>
@@ -483,7 +483,7 @@
     <t>57,0%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -615,7 +615,7 @@
     <t>64,63%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>0,72%</t>
@@ -732,7 +732,7 @@
     <t>69,72%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -774,6 +774,12 @@
     <t>33,87%</t>
   </si>
   <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>1,59%</t>
   </si>
   <si>
@@ -1509,25 +1515,25 @@
     <t>30,57%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
   </si>
   <si>
     <t>22,79%</t>
@@ -1536,16 +1542,13 @@
     <t>82,18%</t>
   </si>
   <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
   </si>
   <si>
     <t>77,21%</t>
@@ -1554,13 +1557,19 @@
     <t>17,82%</t>
   </si>
   <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
   </si>
   <si>
     <t>1,9%</t>
@@ -2089,8 +2098,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6DDF76-97C6-4542-8B7D-D0149BE4EE6A}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB87770-DB0A-47C3-8E39-A3091DB8A112}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4049,55 +4058,49 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>245</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>22</v>
-      </c>
-      <c r="D40" s="7">
-        <v>22549</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>246</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H40" s="7">
-        <v>17</v>
-      </c>
-      <c r="I40" s="7">
-        <v>17738</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M40" s="7">
-        <v>39</v>
-      </c>
-      <c r="N40" s="7">
-        <v>40287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,49 +4109,43 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>44</v>
-      </c>
-      <c r="D41" s="7">
-        <v>50441</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="H41" s="7">
-        <v>34</v>
-      </c>
-      <c r="I41" s="7">
-        <v>40125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M41" s="7">
-        <v>78</v>
-      </c>
-      <c r="N41" s="7">
-        <v>90567</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,49 +4154,43 @@
         <v>28</v>
       </c>
       <c r="C42" s="7">
-        <v>183</v>
-      </c>
-      <c r="D42" s="7">
-        <v>194189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>124</v>
+        <v>246</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="H42" s="7">
-        <v>143</v>
-      </c>
-      <c r="I42" s="7">
-        <v>154624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="M42" s="7">
-        <v>326</v>
-      </c>
-      <c r="N42" s="7">
-        <v>348813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,49 +4199,43 @@
         <v>38</v>
       </c>
       <c r="C43" s="7">
-        <v>310</v>
-      </c>
-      <c r="D43" s="7">
-        <v>322453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>128</v>
+        <v>246</v>
       </c>
       <c r="H43" s="7">
-        <v>225</v>
-      </c>
-      <c r="I43" s="7">
-        <v>239243</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="M43" s="7">
-        <v>535</v>
-      </c>
-      <c r="N43" s="7">
-        <v>561696</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N43" s="7"/>
       <c r="O43" s="7" t="s">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,49 +4244,43 @@
         <v>48</v>
       </c>
       <c r="C44" s="7">
-        <v>773</v>
-      </c>
-      <c r="D44" s="7">
-        <v>828095</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="H44" s="7">
-        <v>453</v>
-      </c>
-      <c r="I44" s="7">
-        <v>493001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="M44" s="7">
-        <v>1226</v>
-      </c>
-      <c r="N44" s="7">
-        <v>1321096</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N44" s="7"/>
       <c r="O44" s="7" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,63 +4289,366 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>22</v>
+      </c>
+      <c r="D46" s="7">
+        <v>22549</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H46" s="7">
+        <v>17</v>
+      </c>
+      <c r="I46" s="7">
+        <v>17738</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="M46" s="7">
+        <v>39</v>
+      </c>
+      <c r="N46" s="7">
+        <v>40287</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>44</v>
+      </c>
+      <c r="D47" s="7">
+        <v>50441</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H47" s="7">
+        <v>34</v>
+      </c>
+      <c r="I47" s="7">
+        <v>40125</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M47" s="7">
+        <v>78</v>
+      </c>
+      <c r="N47" s="7">
+        <v>90567</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="7">
+        <v>183</v>
+      </c>
+      <c r="D48" s="7">
+        <v>194189</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H48" s="7">
+        <v>143</v>
+      </c>
+      <c r="I48" s="7">
+        <v>154624</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M48" s="7">
+        <v>326</v>
+      </c>
+      <c r="N48" s="7">
+        <v>348813</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="7">
+        <v>310</v>
+      </c>
+      <c r="D49" s="7">
+        <v>322453</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H49" s="7">
+        <v>225</v>
+      </c>
+      <c r="I49" s="7">
+        <v>239243</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M49" s="7">
+        <v>535</v>
+      </c>
+      <c r="N49" s="7">
+        <v>561696</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="7">
+        <v>773</v>
+      </c>
+      <c r="D50" s="7">
+        <v>828096</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H50" s="7">
+        <v>453</v>
+      </c>
+      <c r="I50" s="7">
+        <v>493001</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M50" s="7">
+        <v>1226</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1321096</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1332</v>
       </c>
-      <c r="D45" s="7">
-        <v>1417728</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>1417729</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="7">
         <v>872</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>944731</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M51" s="7">
         <v>2204</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2362459</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>285</v>
+      <c r="O51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4379,8 +4661,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FF6A9D-9243-4F19-8F0E-F8ECE4F889D8}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8248479D-EFFD-460B-8E45-28346E3FB396}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4396,7 +4678,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4503,13 +4785,13 @@
         <v>1060</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4518,13 +4800,13 @@
         <v>1085</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4533,13 +4815,13 @@
         <v>2145</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4836,13 @@
         <v>8198</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -4569,13 +4851,13 @@
         <v>6644</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -4587,10 +4869,10 @@
         <v>33</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4887,13 @@
         <v>21057</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -4620,13 +4902,13 @@
         <v>22663</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -4635,13 +4917,13 @@
         <v>43720</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,13 +4938,13 @@
         <v>22673</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -4671,13 +4953,13 @@
         <v>29084</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -4686,13 +4968,13 @@
         <v>51757</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4989,13 @@
         <v>26121</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -4722,13 +5004,13 @@
         <v>32378</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M8" s="7">
         <v>57</v>
@@ -4737,13 +5019,13 @@
         <v>58499</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +5093,13 @@
         <v>15277</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4826,13 +5108,13 @@
         <v>3997</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -4841,13 +5123,13 @@
         <v>19275</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +5144,13 @@
         <v>21703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -4880,10 +5162,10 @@
         <v>82</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M11" s="7">
         <v>48</v>
@@ -4892,13 +5174,13 @@
         <v>48170</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +5195,13 @@
         <v>75268</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>178</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H12" s="7">
         <v>57</v>
@@ -4928,13 +5210,13 @@
         <v>54767</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M12" s="7">
         <v>126</v>
@@ -4943,13 +5225,13 @@
         <v>130035</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,13 +5246,13 @@
         <v>92411</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H13" s="7">
         <v>81</v>
@@ -4979,13 +5261,13 @@
         <v>76842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M13" s="7">
         <v>172</v>
@@ -4994,13 +5276,13 @@
         <v>169254</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,10 +5300,10 @@
         <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H14" s="7">
         <v>113</v>
@@ -5030,13 +5312,13 @@
         <v>111642</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M14" s="7">
         <v>248</v>
@@ -5045,13 +5327,13 @@
         <v>251167</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,10 +5401,10 @@
         <v>8180</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>76</v>
@@ -5134,13 +5416,13 @@
         <v>7314</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -5149,13 +5431,13 @@
         <v>15494</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,13 +5452,13 @@
         <v>23283</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -5185,13 +5467,13 @@
         <v>15999</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -5200,13 +5482,13 @@
         <v>39282</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,13 +5503,13 @@
         <v>93239</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>239</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H18" s="7">
         <v>56</v>
@@ -5236,13 +5518,13 @@
         <v>53271</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M18" s="7">
         <v>141</v>
@@ -5251,13 +5533,13 @@
         <v>146510</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,13 +5554,13 @@
         <v>119167</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H19" s="7">
         <v>90</v>
@@ -5287,28 +5569,28 @@
         <v>87821</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M19" s="7">
         <v>205</v>
       </c>
       <c r="N19" s="7">
-        <v>206989</v>
+        <v>206988</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,13 +5605,13 @@
         <v>215719</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H20" s="7">
         <v>150</v>
@@ -5338,13 +5620,13 @@
         <v>153009</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M20" s="7">
         <v>357</v>
@@ -5353,13 +5635,13 @@
         <v>368728</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,7 +5683,7 @@
         <v>756</v>
       </c>
       <c r="N21" s="7">
-        <v>777002</v>
+        <v>777001</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -5427,13 +5709,13 @@
         <v>5358</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -5442,13 +5724,13 @@
         <v>11865</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -5457,13 +5739,13 @@
         <v>17223</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,7 +5766,7 @@
         <v>118</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -5493,13 +5775,13 @@
         <v>17292</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M23" s="7">
         <v>24</v>
@@ -5508,10 +5790,10 @@
         <v>29527</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>30</v>
@@ -5529,13 +5811,13 @@
         <v>68113</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -5544,13 +5826,13 @@
         <v>36316</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M24" s="7">
         <v>97</v>
@@ -5559,13 +5841,13 @@
         <v>104428</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,7 +5868,7 @@
         <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H25" s="7">
         <v>64</v>
@@ -5595,13 +5877,13 @@
         <v>70635</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M25" s="7">
         <v>159</v>
@@ -5610,13 +5892,13 @@
         <v>173068</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5913,13 @@
         <v>179590</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H26" s="7">
         <v>98</v>
@@ -5646,13 +5928,13 @@
         <v>107009</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M26" s="7">
         <v>258</v>
@@ -5661,13 +5943,13 @@
         <v>286599</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +6017,13 @@
         <v>8764</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -5750,13 +6032,13 @@
         <v>3243</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -5765,10 +6047,10 @@
         <v>12006</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>77</v>
@@ -5786,13 +6068,13 @@
         <v>9514</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -5801,13 +6083,13 @@
         <v>7695</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -5816,13 +6098,13 @@
         <v>17209</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +6119,13 @@
         <v>27488</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -5852,13 +6134,13 @@
         <v>17702</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M30" s="7">
         <v>40</v>
@@ -5867,13 +6149,13 @@
         <v>45190</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +6170,13 @@
         <v>40201</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H31" s="7">
         <v>24</v>
@@ -5903,13 +6185,13 @@
         <v>27647</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>78</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M31" s="7">
         <v>59</v>
@@ -5918,13 +6200,13 @@
         <v>67848</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,13 +6221,13 @@
         <v>79760</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H32" s="7">
         <v>40</v>
@@ -5954,13 +6236,13 @@
         <v>49592</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M32" s="7">
         <v>111</v>
@@ -5969,13 +6251,13 @@
         <v>129352</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,7 +6331,7 @@
         <v>195</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>233</v>
+        <v>491</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6064,7 +6346,7 @@
         <v>195</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6079,7 +6361,7 @@
         <v>195</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,7 +6382,7 @@
         <v>195</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>233</v>
+        <v>491</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6115,7 +6397,7 @@
         <v>195</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6130,7 +6412,7 @@
         <v>195</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,13 +6427,13 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6166,7 +6448,7 @@
         <v>195</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6175,13 +6457,13 @@
         <v>1050</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6478,13 @@
         <v>1024</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6211,13 +6493,13 @@
         <v>1183</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -6226,13 +6508,13 @@
         <v>2207</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>500</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,16 +6523,16 @@
         <v>48</v>
       </c>
       <c r="C38" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" s="7">
-        <v>3910</v>
+        <v>3115</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>235</v>
@@ -6262,28 +6544,28 @@
         <v>4007</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>235</v>
       </c>
       <c r="M38" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N38" s="7">
-        <v>7918</v>
+        <v>7123</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,10 +6574,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="7">
-        <v>5985</v>
+        <v>5190</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>58</v>
@@ -6322,10 +6604,10 @@
         <v>58</v>
       </c>
       <c r="M39" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N39" s="7">
-        <v>11176</v>
+        <v>10381</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>58</v>
@@ -6339,55 +6621,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>245</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>38639</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>456</v>
+        <v>15</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>508</v>
+        <v>195</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>509</v>
       </c>
       <c r="H40" s="7">
-        <v>25</v>
-      </c>
-      <c r="I40" s="7">
-        <v>27505</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>448</v>
+        <v>246</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>417</v>
+        <v>246</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>510</v>
+        <v>246</v>
       </c>
       <c r="M40" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N40" s="7">
-        <v>66143</v>
+        <v>0</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>511</v>
+        <v>15</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>512</v>
+        <v>195</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>63</v>
+        <v>509</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,49 +6676,47 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>74934</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>513</v>
+        <v>15</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>514</v>
+        <v>195</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="H41" s="7">
-        <v>74</v>
-      </c>
-      <c r="I41" s="7">
-        <v>74096</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>516</v>
+        <v>246</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>517</v>
+        <v>246</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>518</v>
+        <v>246</v>
       </c>
       <c r="M41" s="7">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>149030</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>519</v>
+        <v>15</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>520</v>
+        <v>195</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,49 +6725,47 @@
         <v>28</v>
       </c>
       <c r="C42" s="7">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>286215</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>521</v>
+        <v>15</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>522</v>
+        <v>195</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="H42" s="7">
-        <v>187</v>
-      </c>
-      <c r="I42" s="7">
-        <v>184719</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>524</v>
+        <v>246</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>525</v>
+        <v>246</v>
       </c>
       <c r="M42" s="7">
-        <v>447</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>470934</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>526</v>
+        <v>15</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>527</v>
+        <v>195</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,49 +6774,47 @@
         <v>38</v>
       </c>
       <c r="C43" s="7">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>377909</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>529</v>
+        <v>15</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>530</v>
+        <v>195</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="H43" s="7">
-        <v>289</v>
-      </c>
-      <c r="I43" s="7">
-        <v>293214</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>532</v>
+        <v>246</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>533</v>
+        <v>246</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>534</v>
+        <v>246</v>
       </c>
       <c r="M43" s="7">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>671123</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>535</v>
+        <v>15</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>536</v>
+        <v>195</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6549,49 +6823,47 @@
         <v>48</v>
       </c>
       <c r="C44" s="7">
-        <v>601</v>
+        <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>644625</v>
+        <v>795</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>538</v>
+        <v>235</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>540</v>
+        <v>58</v>
       </c>
       <c r="H44" s="7">
-        <v>438</v>
-      </c>
-      <c r="I44" s="7">
-        <v>457638</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>541</v>
+        <v>246</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>542</v>
+        <v>246</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>543</v>
+        <v>246</v>
       </c>
       <c r="M44" s="7">
-        <v>1039</v>
+        <v>1</v>
       </c>
       <c r="N44" s="7">
-        <v>1102263</v>
+        <v>795</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>544</v>
+        <v>235</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>546</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,63 +6872,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>795</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>795</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>35</v>
+      </c>
+      <c r="D46" s="7">
+        <v>38639</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H46" s="7">
+        <v>25</v>
+      </c>
+      <c r="I46" s="7">
+        <v>27505</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="M46" s="7">
+        <v>60</v>
+      </c>
+      <c r="N46" s="7">
+        <v>66143</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>68</v>
+      </c>
+      <c r="D47" s="7">
+        <v>74934</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="H47" s="7">
+        <v>74</v>
+      </c>
+      <c r="I47" s="7">
+        <v>74096</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="M47" s="7">
+        <v>142</v>
+      </c>
+      <c r="N47" s="7">
+        <v>149030</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="7">
+        <v>260</v>
+      </c>
+      <c r="D48" s="7">
+        <v>286215</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="H48" s="7">
+        <v>187</v>
+      </c>
+      <c r="I48" s="7">
+        <v>184719</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="M48" s="7">
+        <v>447</v>
+      </c>
+      <c r="N48" s="7">
+        <v>470934</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="7">
+        <v>359</v>
+      </c>
+      <c r="D49" s="7">
+        <v>377909</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="H49" s="7">
+        <v>289</v>
+      </c>
+      <c r="I49" s="7">
+        <v>293214</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="M49" s="7">
+        <v>648</v>
+      </c>
+      <c r="N49" s="7">
+        <v>671123</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="7">
+        <v>601</v>
+      </c>
+      <c r="D50" s="7">
+        <v>644625</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="H50" s="7">
+        <v>438</v>
+      </c>
+      <c r="I50" s="7">
+        <v>457638</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="M50" s="7">
+        <v>1039</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1102263</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1323</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1422322</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="7">
         <v>1013</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>1037172</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M51" s="7">
         <v>2336</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2459494</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>285</v>
+      <c r="O51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
